--- a/admin docs/BSides19 Project Summary.xlsx
+++ b/admin docs/BSides19 Project Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="528" documentId="11_F25DC773A252ABEACE02EC2C3B9B477C5ADE5898" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D419C4A3-CDC4-40EE-B2F4-FB8234CC6052}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="11_F25DC773A252ABEACE02EC2C3B9B477C5ADE5898" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9D4D8A4F-9660-4BE8-A181-F9E4C4FA71CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>https://www.mouser.com/ProductDetail/Espressif-Systems/ESP-WROOM-02D?qs=sGAEpiMZZMve4%2fbfQkoj%252bFo2lZdnZgOU6INDYnTf7ns%3d</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Code info</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>BOM Complete (Y/N)</t>
   </si>
   <si>
@@ -343,6 +340,15 @@
   </si>
   <si>
     <t>Project Name</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Customer Supplied</t>
+  </si>
+  <si>
+    <t>Kids Badge</t>
   </si>
 </sst>
 </file>
@@ -353,7 +359,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +426,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +488,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -921,6 +941,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -929,7 +986,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1075,10 +1132,24 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
@@ -1363,242 +1434,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E24C87-6631-4852-AEA5-9113B088B520}">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="87" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="86" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5">
         <v>3500</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="86">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="83">
         <v>43417</v>
       </c>
-      <c r="D5" s="86"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="85">
+      <c r="D5" s="83"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="84">
         <v>43556</v>
       </c>
-      <c r="D6" s="85"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="84">
+      <c r="D6" s="84"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="89">
         <f>SUM(C11,D11,E11,F11,G11,H11)</f>
         <v>555</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="86" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="83">
+      <c r="I10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="85">
         <v>150</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="85">
         <v>350</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="85">
         <v>25</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="85">
         <v>15</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="85">
         <v>10</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="85">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="I11" s="4">
+        <v>50</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="86" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="86" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="86" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="86" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="86" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="333" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1618,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230ECA56-04B2-4271-9B6D-69C62BBA135C}">
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>

--- a/admin docs/BSides19 Project Summary.xlsx
+++ b/admin docs/BSides19 Project Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="559" documentId="11_F25DC773A252ABEACE02EC2C3B9B477C5ADE5898" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9D4D8A4F-9660-4BE8-A181-F9E4C4FA71CC}"/>
+  <xr:revisionPtr revIDLastSave="594" documentId="11_F25DC773A252ABEACE02EC2C3B9B477C5ADE5898" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2D95DDFD-A923-4F0D-92C6-97CDBC0E9DE5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="116">
   <si>
     <t>https://www.mouser.com/ProductDetail/Espressif-Systems/ESP-WROOM-02D?qs=sGAEpiMZZMve4%2fbfQkoj%252bFo2lZdnZgOU6INDYnTf7ns%3d</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Board Size (mm)</t>
   </si>
   <si>
-    <t>Project-Frodo</t>
-  </si>
-  <si>
     <t>Git Repositiory</t>
   </si>
   <si>
@@ -342,13 +339,46 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Customer Supplied</t>
   </si>
   <si>
     <t>Kids Badge</t>
+  </si>
+  <si>
+    <t>https://github.com/flightgod/Project-Frodo</t>
+  </si>
+  <si>
+    <t>To-Do</t>
+  </si>
+  <si>
+    <t>Unk</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Badges On Hand</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>Order to PCBWay</t>
+  </si>
+  <si>
+    <t>Parts Ordered</t>
+  </si>
+  <si>
+    <t>Final Prototype Tested</t>
+  </si>
+  <si>
+    <t>Final Prototype Ordered</t>
+  </si>
+  <si>
+    <t>Design Prototype Ordered</t>
+  </si>
+  <si>
+    <t>POC Tested</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1016,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1111,6 +1141,24 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,24 +1180,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
@@ -1436,50 +1468,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E24C87-6631-4852-AEA5-9113B088B520}">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="88" t="s">
+      <c r="B2" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
+      <c r="C2" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
+      <c r="C3" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
-        <v>98</v>
+      <c r="B4" s="79" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="5">
         <v>3500</v>
@@ -1493,13 +1525,13 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="83">
+      <c r="B5" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="76">
         <v>43417</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1508,13 +1540,13 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="84">
+      <c r="B6" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="77">
         <v>43556</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1523,10 +1555,10 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="81">
         <f>SUM(C11,D11,E11,F11,G11,H11)</f>
         <v>555</v>
       </c>
@@ -1539,11 +1571,11 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="86" t="s">
-        <v>95</v>
+      <c r="B8" s="79" t="s">
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1554,7 +1586,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="79" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1569,7 +1601,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="79" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1591,30 +1623,30 @@
         <v>59</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="78">
         <v>150</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="78">
         <v>350</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="78">
         <v>25</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="78">
         <v>15</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="78">
         <v>10</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="78">
         <v>5</v>
       </c>
       <c r="I11" s="4">
@@ -1623,7 +1655,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="79" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1650,7 +1682,7 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="79" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1677,24 +1709,34 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="79" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="79" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1709,59 +1751,91 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="79" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="79" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="79" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1771,12 +1845,10 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1789,13 +1861,17 @@
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1803,14 +1879,16 @@
         <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
   </sheetData>
@@ -1825,12 +1903,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B6E52-9FB3-4627-B0F6-E5597E1CEEA7}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="93">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="93">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="93">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="93">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="94">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1861,18 +2006,18 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="E2" s="78" t="s">
+      <c r="C2" s="89"/>
+      <c r="E2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="H2" s="78" t="s">
+      <c r="F2" s="89"/>
+      <c r="H2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="79"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="75" t="s">
@@ -1905,18 +2050,18 @@
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="E6" s="76" t="s">
+      <c r="C6" s="87"/>
+      <c r="E6" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="H6" s="76" t="s">
+      <c r="F6" s="87"/>
+      <c r="H6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
@@ -2126,10 +2271,10 @@
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="89"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="72" t="s">
@@ -2241,18 +2386,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
@@ -2516,18 +2661,18 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
@@ -2649,18 +2794,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
@@ -2919,18 +3064,18 @@
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
@@ -3053,18 +3198,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
@@ -3195,18 +3340,18 @@
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">

--- a/admin docs/BSides19 Project Summary.xlsx
+++ b/admin docs/BSides19 Project Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="594" documentId="11_F25DC773A252ABEACE02EC2C3B9B477C5ADE5898" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2D95DDFD-A923-4F0D-92C6-97CDBC0E9DE5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{05DE9FE8-97A0-4BD5-986A-49EEEAA4080B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
   <si>
     <t>https://www.mouser.com/ProductDetail/Espressif-Systems/ESP-WROOM-02D?qs=sGAEpiMZZMve4%2fbfQkoj%252bFo2lZdnZgOU6INDYnTf7ns%3d</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>POC Tested</t>
+  </si>
+  <si>
+    <t>AT Tiny</t>
+  </si>
+  <si>
+    <t>Pin Backs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1008,6 +1014,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1016,7 +1048,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1147,6 +1179,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,8 +1218,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
@@ -1468,48 +1504,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E24C87-6631-4852-AEA5-9113B088B520}">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="79" t="s">
         <v>97</v>
       </c>
@@ -1524,7 +1560,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="79" t="s">
         <v>96</v>
       </c>
@@ -1539,7 +1575,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="79" t="s">
         <v>95</v>
       </c>
@@ -1554,13 +1590,13 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="79" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="81">
         <f>SUM(C11,D11,E11,F11,G11,H11)</f>
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1570,7 +1606,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="79" t="s">
         <v>94</v>
       </c>
@@ -1585,7 +1621,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="79" t="s">
         <v>93</v>
       </c>
@@ -1600,7 +1636,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="79" t="s">
         <v>91</v>
       </c>
@@ -1627,7 +1663,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="79" t="s">
         <v>87</v>
       </c>
@@ -1635,7 +1671,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="78">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E11" s="78">
         <v>25</v>
@@ -1654,7 +1690,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="79" t="s">
         <v>86</v>
       </c>
@@ -1681,7 +1717,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="79" t="s">
         <v>82</v>
       </c>
@@ -1708,7 +1744,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="79" t="s">
         <v>79</v>
       </c>
@@ -1735,7 +1771,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="79" t="s">
         <v>77</v>
       </c>
@@ -1750,7 +1786,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="79" t="s">
         <v>75</v>
       </c>
@@ -1777,7 +1813,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="79" t="s">
         <v>73</v>
       </c>
@@ -1804,7 +1840,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="79" t="s">
         <v>71</v>
       </c>
@@ -1831,7 +1867,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="79" t="s">
         <v>70</v>
       </c>
@@ -1844,7 +1880,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="79" t="s">
         <v>69</v>
       </c>
@@ -1857,7 +1893,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
@@ -1874,7 +1910,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
@@ -1905,74 +1941,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B6E52-9FB3-4627-B0F6-E5597E1CEEA7}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="82">
         <v>43581</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="82">
         <v>43574</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="82">
         <v>43560</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="82">
         <v>43500</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="82">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="82">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="83">
         <v>43456</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>115</v>
+      </c>
+      <c r="C10" s="82">
+        <v>43474</v>
       </c>
     </row>
   </sheetData>
@@ -1985,41 +2030,41 @@
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1328125" customWidth="1"/>
+    <col min="5" max="5" width="23.265625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" customWidth="1"/>
+    <col min="8" max="8" width="24.265625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.86328125" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="E2" s="88" t="s">
+      <c r="C2" s="95"/>
+      <c r="E2" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="H2" s="88" t="s">
+      <c r="F2" s="95"/>
+      <c r="H2" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="89"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="95"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="75" t="s">
         <v>63</v>
       </c>
@@ -2039,31 +2084,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="41" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="66">
         <f>C25</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="E6" s="86" t="s">
+      <c r="C6" s="93"/>
+      <c r="E6" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="H6" s="86" t="s">
+      <c r="F6" s="93"/>
+      <c r="H6" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="87"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="93"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="54" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2119,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="58">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>24</v>
@@ -2083,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="55" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="59">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>25</v>
@@ -2103,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="55" t="s">
         <v>26</v>
       </c>
@@ -2116,7 +2161,7 @@
       </c>
       <c r="F9" s="60">
         <f>'KidsBadge BOM'!J12</f>
-        <v>273.5</v>
+        <v>173.5</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>26</v>
@@ -2126,7 +2171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="55" t="s">
         <v>27</v>
       </c>
@@ -2146,7 +2191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="55" t="s">
         <v>47</v>
       </c>
@@ -2166,13 +2211,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="61">
         <f>(C3+C4)*1.5</f>
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>35</v>
@@ -2189,7 +2234,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="56" t="s">
         <v>28</v>
       </c>
@@ -2208,83 +2253,83 @@
         <v>28</v>
       </c>
       <c r="I13" s="62">
-        <f>'LTS BOM'!J13</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>'LTS BOM'!J14</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="57" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="63">
         <f>SUM(C7:C13)</f>
-        <v>3101.5</v>
+        <v>3251.5</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="63">
         <f>SUM(F7:F13)</f>
-        <v>948.5</v>
+        <v>398.5</v>
       </c>
       <c r="H14" s="57" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="63">
         <f>SUM(I7:I13)</f>
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L14" s="42">
         <f>C14+F14</f>
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="44">
         <f>C14 / (C3+C4)</f>
-        <v>5.6390909090909087</v>
+        <v>5.0023076923076921</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="44">
         <f>F14/F3</f>
-        <v>18.97</v>
+        <v>7.97</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>48</v>
       </c>
       <c r="I16" s="44">
         <f>I14/I3</f>
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88" t="s">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="89"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="95"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="72" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="70">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="73" t="s">
         <v>58</v>
       </c>
@@ -2292,7 +2337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="73" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="73" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="74" t="s">
         <v>61</v>
       </c>
@@ -2316,34 +2361,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="69">
         <f>SUM(C20:C24)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="28" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="40" t="s">
         <v>43</v>
       </c>
@@ -2371,35 +2416,35 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="3" max="3" width="41.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" customWidth="1"/>
     <col min="11" max="11" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
@@ -2432,7 +2477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -2458,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
@@ -2484,7 +2529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -2510,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -2538,7 +2583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="32" t="s">
         <v>8</v>
@@ -2564,7 +2609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2590,7 +2635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -2618,7 +2663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="9" t="s">
         <v>13</v>
@@ -2646,7 +2691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="45">
         <f>SUM(I4:I11)</f>
         <v>6.51</v>
@@ -2656,25 +2701,25 @@
         <v>1126.5</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+    <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
@@ -2705,7 +2750,7 @@
       </c>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>32</v>
@@ -2731,7 +2776,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
         <v>34</v>
@@ -2755,7 +2800,7 @@
       </c>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="45">
         <f>SUM(I16:I17)</f>
         <v>1.5</v>
@@ -2783,31 +2828,31 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="123.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
@@ -2838,33 +2883,33 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="17">
         <v>1</v>
       </c>
       <c r="I4" s="19">
         <f>H4*G4</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="19">
         <f>I4*J3</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>37</v>
@@ -2890,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -2916,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -2944,7 +2989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="32" t="s">
         <v>8</v>
@@ -2970,7 +3015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -2996,7 +3041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3024,7 +3069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="9" t="s">
         <v>13</v>
@@ -3052,32 +3097,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="51">
         <f>SUM(I4:I11)</f>
-        <v>5.47</v>
+        <v>3.4699999999999998</v>
       </c>
       <c r="J12" s="44">
         <f>SUM(J4:J11)</f>
-        <v>273.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
@@ -3108,7 +3153,7 @@
       </c>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>32</v>
@@ -3134,7 +3179,7 @@
       </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
         <v>34</v>
@@ -3158,7 +3203,7 @@
       </c>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G18" s="1"/>
       <c r="I18" s="45">
         <f>SUM(I16:I17)</f>
@@ -3183,35 +3228,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EF07E-B53E-4959-AFC9-08CFAA150A1A}">
-  <dimension ref="B1:K13"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="123.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +3287,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="17" t="s">
         <v>51</v>
@@ -3272,7 +3317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>45</v>
@@ -3300,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="15"/>
       <c r="C6" s="11" t="s">
         <v>6</v>
@@ -3328,7 +3373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I7" s="52">
         <f>SUM(I4:I6)</f>
         <v>0.32</v>
@@ -3338,22 +3383,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="90" t="s">
+    <row r="8" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
@@ -3384,7 +3429,7 @@
       </c>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="14"/>
       <c r="C11" s="64" t="s">
         <v>54</v>
@@ -3414,39 +3459,63 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
+    <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="84"/>
+      <c r="C12" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10">
+      <c r="F12" s="65"/>
+      <c r="G12" s="85">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="86">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <f>H12*G12</f>
+        <v>0.16</v>
+      </c>
+      <c r="J12" s="6">
+        <f>I12*J10</f>
+        <v>16</v>
+      </c>
+      <c r="K12" s="87"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="15"/>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10">
         <v>0.5</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <v>1</v>
       </c>
-      <c r="I12" s="12">
-        <f>H12*G12</f>
+      <c r="I13" s="12">
+        <f>H13*G13</f>
         <v>0.5</v>
       </c>
-      <c r="J12" s="12">
-        <f>I12*J10</f>
+      <c r="J13" s="12">
+        <f>I13*J10</f>
         <v>50</v>
       </c>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="1"/>
-      <c r="I13" s="45">
-        <f>SUM(I11:I12)</f>
-        <v>0.7</v>
-      </c>
-      <c r="J13" s="47">
-        <f>SUM(J11:J12)</f>
-        <v>70</v>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G14" s="1"/>
+      <c r="I14" s="45">
+        <f>SUM(I11:I13)</f>
+        <v>0.86</v>
+      </c>
+      <c r="J14" s="47">
+        <f>SUM(J11:J13)</f>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3455,5 +3524,6 @@
     <mergeCell ref="B9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/admin docs/BSides19 Project Summary.xlsx
+++ b/admin docs/BSides19 Project Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{05DE9FE8-97A0-4BD5-986A-49EEEAA4080B}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{187A9831-FE31-49C7-B6B7-829D6E19AC2D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
   <si>
     <t>https://www.mouser.com/ProductDetail/Espressif-Systems/ESP-WROOM-02D?qs=sGAEpiMZZMve4%2fbfQkoj%252bFo2lZdnZgOU6INDYnTf7ns%3d</t>
   </si>
   <si>
-    <t>ESP-WROOM-02D</t>
-  </si>
-  <si>
     <t>battery Holders 2x AA</t>
   </si>
   <si>
@@ -385,6 +382,27 @@
   </si>
   <si>
     <t>Pin Backs</t>
+  </si>
+  <si>
+    <t>Badge WiFi Identify</t>
+  </si>
+  <si>
+    <t>Wifi Identify turn on Lights</t>
+  </si>
+  <si>
+    <t>Different patterns</t>
+  </si>
+  <si>
+    <t>Beacon Broadcast - lo energy</t>
+  </si>
+  <si>
+    <t>ESP-8266 12F</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sunled/XZMYK45WT-9/1497-1334-1-ND/6615766</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/75-XFree-shipping-2032-CR2032-3v-220mAh-lithium-Button-Coin-Battery-in-Bulk-for-watches-toys/32725154601.html?spm=2114.search0104.3.92.347522566EsRWR&amp;ws_ab_test=searchweb0_0,searchweb201602_3_10065_10068_10130_10890_10547_319_10546_317_5730318_10548_5729218_10545_10696_453_10084_454_10083_10618_10307_538_537_536_10059_10884_10887_100031_321_322_10103,searchweb201603_51,ppcSwitch_0&amp;algo_expid=92bb5bac-c7f3-4ead-96d8-d84fe5f17d5a-13&amp;algo_pvid=92bb5bac-c7f3-4ead-96d8-d84fe5f17d5a</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1066,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1218,6 +1236,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
@@ -1237,6 +1256,203 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1140495</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1170735</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109147</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8387CBB-0A57-4714-970A-7BBBDD954412}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1950120" y="640440"/>
+            <a:ext cx="30240" cy="25920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8387CBB-0A57-4714-970A-7BBBDD954412}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1941480" y="631440"/>
+              <a:ext cx="47880" cy="43560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>780450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>804930</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110227</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C550AB-964B-423E-8A95-41B6DA5DEBB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8076600" y="639360"/>
+            <a:ext cx="24480" cy="28080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C550AB-964B-423E-8A95-41B6DA5DEBB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8067960" y="630360"/>
+              <a:ext cx="42120" cy="45720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-12-24T02:06:50.522"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">83 71 8208 0 0,'0'0'182'0'0,"0"0"29"0"0,0-2 13 0 0,0 0-128 0 0,0 0-76 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2-1-20 0 0,2 1 165 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-165 0 0,0 2 58 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-58 0 0,1 0 103 0 0,-19-9 686 0 0,-6 7 655 0 0,15 2-1433 0 0,9-1-21 0 0,1 2 6 0 0,0-1-86 0 0,0 11-358 0 0,3 7-3446 0 0,1-6-188 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2018-12-24T02:07:13.855"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 77 9584 0 0,'0'0'208'0'0,"0"0"48"0"0,0 0 0 0 0,0 0 24 0 0,0 0-280 0 0,2-7 0 0 0,7 0 0 0 0,-2 2 0 0 0,-7-2 64 0 0,0 0-64 0 0,7 4 0 0 0,1-4 0 0 0,3 0 0 0 0,-4 0 0 0 0,-7 0 0 0 0,4 1-2832 0 0,7-1-584 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1502,9 +1718,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E24C87-6631-4852-AEA5-9113B088B520}">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1517,10 +1733,10 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
@@ -1532,10 +1748,10 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
@@ -1547,7 +1763,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5">
         <v>3500</v>
@@ -1562,7 +1778,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="76">
         <v>43417</v>
@@ -1577,7 +1793,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="77">
         <v>43556</v>
@@ -1592,11 +1808,11 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="81">
         <f>SUM(C11,D11,E11,F11,G11,H11)</f>
-        <v>655</v>
+        <v>705</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1608,10 +1824,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1623,10 +1839,10 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1638,40 +1854,40 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="78">
         <v>150</v>
       </c>
       <c r="D11" s="78">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E11" s="78">
         <v>25</v>
@@ -1692,91 +1908,91 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1788,61 +2004,61 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1863,13 +2079,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1882,7 +2098,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1895,10 +2111,10 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1906,26 +2122,78 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1953,7 +2221,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="82">
         <v>43581</v>
@@ -1961,7 +2229,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="82">
         <v>43574</v>
@@ -1969,7 +2237,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="82">
         <v>43560</v>
@@ -1977,36 +2245,36 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="82">
-        <v>43500</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="82">
-        <v>43475</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="82">
-        <v>43469</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="83">
         <v>43456</v>
@@ -2014,7 +2282,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="82">
         <v>43474</v>
@@ -2030,7 +2298,7 @@
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2052,33 +2320,33 @@
     <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="95"/>
       <c r="E2" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="95"/>
       <c r="H2" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="95"/>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="31">
         <v>150</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="30">
         <v>50</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="30">
         <v>100</v>
@@ -2086,43 +2354,43 @@
     </row>
     <row r="4" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="66">
         <f>C25</f>
-        <v>500</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="93"/>
       <c r="E6" s="92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="93"/>
       <c r="H6" s="92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="93"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="58">
         <v>400</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="58">
         <v>0</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="58">
         <v>0</v>
@@ -2130,19 +2398,19 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="59">
         <v>425</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="59">
         <v>0</v>
@@ -2150,141 +2418,139 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="60">
         <f>'ConBadge BOM'!J12</f>
-        <v>1126.5</v>
+        <v>790.5</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="60">
         <f>'KidsBadge BOM'!J12</f>
         <v>173.5</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="60">
         <f>'LTS BOM'!J7</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="71">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="71">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="71">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="61">
         <v>0</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="61">
         <v>0</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="61">
-        <v>75</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="61">
         <f>(C3+C4)*1.5</f>
-        <v>975</v>
+        <v>1140</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="61">
         <f>(F3)*1.5</f>
         <v>75</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="61">
-        <f>(I3)*1.5</f>
-        <v>150</v>
+        <f>(I3)*0.8</f>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="62">
         <f>'ConBadge BOM'!J18</f>
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="62">
         <f>'KidsBadge BOM'!J18</f>
         <v>50</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="62">
         <f>'LTS BOM'!J14</f>
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="63">
         <f>SUM(C7:C13)</f>
-        <v>3251.5</v>
+        <v>3020.5</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="63">
         <f>SUM(F7:F13)</f>
-        <v>398.5</v>
+        <v>324.5</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="63">
         <f>SUM(I7:I13)</f>
-        <v>393</v>
+        <v>163</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="42">
         <f>C14+F14</f>
-        <v>3650</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2293,45 +2559,45 @@
     </row>
     <row r="16" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="44">
         <f>C14 / (C3+C4)</f>
-        <v>5.0023076923076921</v>
+        <v>3.9743421052631578</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="44">
         <f>F14/F3</f>
-        <v>7.97</v>
+        <v>6.49</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="44">
         <f>I14/I3</f>
-        <v>3.93</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="95"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="70">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="67">
         <v>25</v>
@@ -2339,15 +2605,15 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="67">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="67">
         <v>15</v>
@@ -2355,42 +2621,42 @@
     </row>
     <row r="24" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="68">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="69">
         <f>SUM(C20:C24)</f>
-        <v>500</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2412,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2432,7 +2698,7 @@
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -2446,58 +2712,57 @@
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="48">
         <f>'Cost Summary'!C3</f>
         <v>150</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="H4" s="17">
         <v>1</v>
       </c>
       <c r="I4" s="19">
-        <f>H4*G4</f>
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="J4" s="19">
         <f>I4*J3</f>
-        <v>450</v>
+        <v>211.5</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>0</v>
@@ -2506,59 +2771,59 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I11" si="0">H5*G5</f>
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="J5" s="6">
         <f>I5*J3</f>
-        <v>114</v>
+        <v>118.5</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="H6" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>1.82</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="J6" s="6">
         <f>I6*J3</f>
-        <v>273</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>4</v>
+        <v>171.00000000000003</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2580,13 +2845,13 @@
         <v>15</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -2606,13 +2871,13 @@
         <v>66</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2632,13 +2897,13 @@
         <v>19.5</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2660,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2688,17 +2953,17 @@
         <v>36</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I12" s="45">
         <f>SUM(I4:I11)</f>
-        <v>6.51</v>
+        <v>4.2700000000000005</v>
       </c>
       <c r="J12" s="46">
         <f>SUM(J3:J11)</f>
-        <v>1126.5</v>
+        <v>790.5</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2707,7 +2972,7 @@
     </row>
     <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
@@ -2721,28 +2986,28 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I15" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="J15" s="49">
         <f>J3</f>
@@ -2753,61 +3018,61 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H16" s="4">
         <v>2</v>
       </c>
       <c r="I16" s="6">
         <f>H16*G16</f>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J16" s="6">
         <f>I16*J15</f>
-        <v>75</v>
+        <v>84.000000000000014</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="H17" s="11">
         <v>1</v>
       </c>
       <c r="I17" s="12">
         <f>H17*G17</f>
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="J17" s="12">
         <f>I17*J15</f>
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="45">
         <f>SUM(I16:I17)</f>
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="J18" s="47">
         <f>SUM(J16:J17)</f>
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2817,9 +3082,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K11" r:id="rId1" xr:uid="{D6A3A7F7-99EF-4735-9B85-F76458A526A1}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{69AC4793-AFA7-45EC-9154-F99755E7A340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2840,7 +3107,7 @@
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -2854,28 +3121,28 @@
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="48">
         <f>'Cost Summary'!F3</f>
@@ -2886,7 +3153,7 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -2912,7 +3179,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2932,13 +3199,13 @@
         <v>38</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2958,13 +3225,13 @@
         <v>39</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2986,13 +3253,13 @@
         <v>5</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -3012,13 +3279,13 @@
         <v>22</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3038,13 +3305,13 @@
         <v>6.5</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3066,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -3094,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3110,7 +3377,7 @@
     <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
@@ -3124,28 +3391,28 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I15" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="J15" s="49">
         <f>J3</f>
@@ -3156,10 +3423,10 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3182,7 +3449,7 @@
     <row r="17" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -3230,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EF07E-B53E-4959-AFC9-08CFAA150A1A}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3244,7 +3511,7 @@
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -3258,28 +3525,28 @@
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="48">
         <f>'Cost Summary'!I3</f>
@@ -3290,42 +3557,42 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I6" si="0">H4*G4</f>
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="6">
         <f>I4*J3</f>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5">
         <v>0.05</v>
@@ -3342,18 +3609,18 @@
         <v>5</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="15"/>
       <c r="C6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="10">
         <v>0.01</v>
@@ -3370,23 +3637,23 @@
         <v>1</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I7" s="52">
         <f>SUM(I4:I6)</f>
-        <v>0.32</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="J7" s="53">
         <f>SUM(J4:J6)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="97"/>
@@ -3400,28 +3667,28 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="I10" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="J10" s="49">
         <f>J3</f>
@@ -3432,13 +3699,13 @@
     <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="14"/>
       <c r="C11" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="F11" s="65">
         <v>2032</v>
@@ -3457,12 +3724,14 @@
         <f>I11*J10</f>
         <v>20</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="84"/>
       <c r="C12" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -3486,24 +3755,24 @@
     <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="15"/>
       <c r="C13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="10">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H13" s="11">
         <v>1</v>
       </c>
       <c r="I13" s="12">
         <f>H13*G13</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="J13" s="12">
         <f>I13*J10</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K13" s="29"/>
     </row>
@@ -3511,11 +3780,11 @@
       <c r="G14" s="1"/>
       <c r="I14" s="45">
         <f>SUM(I11:I13)</f>
-        <v>0.86</v>
+        <v>0.41</v>
       </c>
       <c r="J14" s="47">
         <f>SUM(J11:J13)</f>
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/admin docs/BSides19 Project Summary.xlsx
+++ b/admin docs/BSides19 Project Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="64" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{187A9831-FE31-49C7-B6B7-829D6E19AC2D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EEBC519E-BC04-4E81-91E0-BE6268BC3ABE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Con Badge AP</t>
   </si>
   <si>
-    <t>Battery Holders 2x AA</t>
-  </si>
-  <si>
     <t>Kids Badge AP</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/75-XFree-shipping-2032-CR2032-3v-220mAh-lithium-Button-Coin-Battery-in-Bulk-for-watches-toys/32725154601.html?spm=2114.search0104.3.92.347522566EsRWR&amp;ws_ab_test=searchweb0_0,searchweb201602_3_10065_10068_10130_10890_10547_319_10546_317_5730318_10548_5729218_10545_10696_453_10084_454_10083_10618_10307_538_537_536_10059_10884_10887_100031_321_322_10103,searchweb201603_51,ppcSwitch_0&amp;algo_expid=92bb5bac-c7f3-4ead-96d8-d84fe5f17d5a-13&amp;algo_pvid=92bb5bac-c7f3-4ead-96d8-d84fe5f17d5a</t>
+  </si>
+  <si>
+    <t>Battery Holders 2x AAA</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1203,6 +1203,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,7 +1238,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
@@ -1273,8 +1274,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>109147</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -1293,7 +1294,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -1338,8 +1339,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>110227</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -1358,7 +1359,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -1733,37 +1734,37 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
+      <c r="C2" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
+      <c r="C3" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5">
         <v>3500</v>
@@ -1778,7 +1779,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="76">
         <v>43417</v>
@@ -1793,7 +1794,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="77">
         <v>43556</v>
@@ -1808,7 +1809,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="81">
         <f>SUM(C11,D11,E11,F11,G11,H11)</f>
@@ -1824,10 +1825,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1839,10 +1840,10 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1854,34 +1855,34 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="78">
         <v>150</v>
@@ -1908,91 +1909,91 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2004,61 +2005,61 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -2079,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2098,7 +2099,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2111,10 +2112,10 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2122,13 +2123,13 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2141,7 +2142,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2154,7 +2155,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2167,7 +2168,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2180,10 +2181,10 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2191,7 +2192,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2221,7 +2222,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="82">
         <v>43581</v>
@@ -2229,7 +2230,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="82">
         <v>43574</v>
@@ -2237,7 +2238,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="82">
         <v>43560</v>
@@ -2245,7 +2246,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="82">
         <v>43493</v>
@@ -2253,7 +2254,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="82">
         <v>43482</v>
@@ -2261,12 +2262,12 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="82">
         <v>43475</v>
@@ -2274,7 +2275,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="83">
         <v>43456</v>
@@ -2282,7 +2283,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="82">
         <v>43474</v>
@@ -2319,34 +2320,34 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="E2" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="95"/>
-      <c r="H2" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="95"/>
+      <c r="B2" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="E2" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="H2" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="31">
         <v>150</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="30">
         <v>50</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="30">
         <v>100</v>
@@ -2354,7 +2355,7 @@
     </row>
     <row r="4" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="66">
         <f>C25</f>
@@ -2363,18 +2364,18 @@
     </row>
     <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="E6" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="93"/>
-      <c r="H6" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="93"/>
+      <c r="C6" s="95"/>
+      <c r="E6" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="95"/>
+      <c r="H6" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="95"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="54" t="s">
@@ -2461,19 +2462,19 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="61">
         <v>0</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="61">
         <v>0</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="61"/>
     </row>
@@ -2546,7 +2547,7 @@
         <v>163</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="42">
         <f>C14+F14</f>
@@ -2559,21 +2560,21 @@
     </row>
     <row r="16" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="44">
         <f>C14 / (C3+C4)</f>
         <v>3.9743421052631578</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="44">
         <f>F14/F3</f>
         <v>6.49</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="44">
         <f>I14/I3</f>
@@ -2582,14 +2583,14 @@
     </row>
     <row r="18" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="95"/>
+      <c r="B19" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="97"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="70">
         <v>550</v>
@@ -2597,7 +2598,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="67">
         <v>25</v>
@@ -2605,7 +2606,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="67">
         <v>10</v>
@@ -2613,7 +2614,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="67">
         <v>15</v>
@@ -2621,7 +2622,7 @@
     </row>
     <row r="24" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="68">
         <v>10</v>
@@ -2636,27 +2637,27 @@
     <row r="27" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2680,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2697,18 +2698,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
@@ -2740,13 +2741,13 @@
         <v>150</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -2816,8 +2817,8 @@
         <f>I6*J3</f>
         <v>171.00000000000003</v>
       </c>
-      <c r="K6" s="99" t="s">
-        <v>122</v>
+      <c r="K6" s="88" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
@@ -2971,18 +2972,18 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
@@ -3094,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4301377-AA15-484C-9B9E-5F5D243282E9}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3106,18 +3107,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
@@ -3153,7 +3154,7 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -3179,7 +3180,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3376,18 +3377,18 @@
     </row>
     <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
@@ -3497,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EF07E-B53E-4959-AFC9-08CFAA150A1A}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3510,18 +3511,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
@@ -3557,14 +3558,14 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="5">
         <v>0.1</v>
@@ -3580,19 +3581,19 @@
         <f>I4*J3</f>
         <v>10</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>52</v>
+      <c r="K4" s="89" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5">
         <v>0.05</v>
@@ -3620,7 +3621,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="10">
         <v>0.01</v>
@@ -3652,18 +3653,18 @@
     </row>
     <row r="8" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="25" t="s">
@@ -3699,13 +3700,13 @@
     <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="14"/>
       <c r="C11" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="65">
         <v>2032</v>
@@ -3725,13 +3726,13 @@
         <v>20</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="84"/>
       <c r="C12" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -3792,7 +3793,10 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B9:K9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{65DE6BE3-3471-4C52-88D0-04E394F4D3CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/admin docs/BSides19 Project Summary.xlsx
+++ b/admin docs/BSides19 Project Summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="68" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EEBC519E-BC04-4E81-91E0-BE6268BC3ABE}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A93FEF17-72BE-44F1-B234-373622BD33D1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>https://www.mouser.com/ProductDetail/Espressif-Systems/ESP-WROOM-02D?qs=sGAEpiMZZMve4%2fbfQkoj%252bFo2lZdnZgOU6INDYnTf7ns%3d</t>
   </si>
   <si>
-    <t>battery Holders 2x AA</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/keystone-electronics/2462/36-2462-ND/303811</t>
   </si>
   <si>
@@ -403,6 +400,33 @@
   </si>
   <si>
     <t>Battery Holders 2x AAA</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Budget Quote</t>
+  </si>
+  <si>
+    <t>Profit %</t>
+  </si>
+  <si>
+    <t>Profit Table</t>
+  </si>
+  <si>
+    <t>Shipping Costs</t>
+  </si>
+  <si>
+    <t>Shipping Cost</t>
+  </si>
+  <si>
+    <t>battery Holders 2x AAA</t>
+  </si>
+  <si>
+    <t>AAA Battery</t>
+  </si>
+  <si>
+    <t>SMD</t>
   </si>
 </sst>
 </file>
@@ -489,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,8 +572,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1058,15 +1094,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1198,13 +1265,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1229,6 +1316,12 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,12 +1332,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1391,6 +1485,266 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1086600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1102080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138877</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7663CD-BD99-4801-83D3-6E4B0B5DFAC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12945225" y="1044720"/>
+            <a:ext cx="15480" cy="13320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7663CD-BD99-4801-83D3-6E4B0B5DFAC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12936585" y="1035720"/>
+              <a:ext cx="33120" cy="30960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1154280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1173720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98557</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678846CD-BC3A-43D7-9EE9-EE047D2B63BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13012905" y="1014480"/>
+            <a:ext cx="19440" cy="3240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678846CD-BC3A-43D7-9EE9-EE047D2B63BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13004265" y="1005840"/>
+              <a:ext cx="37080" cy="20880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1096320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1108560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116197</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7573FBF-1C0E-4E8E-8AE1-0C679F43D8E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12954945" y="1032480"/>
+            <a:ext cx="12240" cy="2880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7573FBF-1C0E-4E8E-8AE1-0C679F43D8E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12945945" y="1023840"/>
+              <a:ext cx="29880" cy="20520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1157520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1205040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129877</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A04336D-B13B-4058-9D49-AE3790C232BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13016145" y="1026000"/>
+            <a:ext cx="47520" cy="23040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A04336D-B13B-4058-9D49-AE3790C232BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13007145" y="1017360"/>
+              <a:ext cx="65160" cy="40680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1453,6 +1807,130 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 77 9584 0 0,'0'0'208'0'0,"0"0"48"0"0,0 0 0 0 0,0 0 24 0 0,0 0-280 0 0,2-7 0 0 0,7 0 0 0 0,-2 2 0 0 0,-7-2 64 0 0,0 0-64 0 0,7 4 0 0 0,1-4 0 0 0,3 0 0 0 0,-4 0 0 0 0,-7 0 0 0 0,4 1-2832 0 0,7-1-584 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-01-08T02:27:17.592"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 36 9472 0 0,'0'0'432'0'0,"0"0"-6"0"0,0 0-228 0 0,0 0 64 0 0,16-6 918 0 0,1-11-724 0 0,-17 17-372 0 0,5-7 215 0 0,-2 2-342 0 0,-3 4-246 0 0,0 1-70 0 0,0 0-477 0 0,0 0-1972 0 0,0 0-842 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-01-08T02:27:18.137"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 3224 0 0,'0'0'456'0'0,"0"0"707"0"0,0 0 311 0 0,0 0 59 0 0,0 0-151 0 0,0 0-705 0 0,0 0-313 0 0,2 0-63 0 0,1 2-177 0 0,-2-2-87 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 0-37 0 0,18 0-812 0 0,-19 0-2937 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-01-08T02:27:18.847"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 5984 0 0,'0'0'536'0'0,"0"0"-432"0"0,0 0-104 0 0,0 0 0 0 0,0 0 1024 0 0,0 0 176 0 0,0 0 40 0 0,0 0 8 0 0,0 0-1000 0 0,11 2-248 0 0,-11-2 0 0 0,11 0-3056 0 0,0 5-656 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-01-08T02:27:20.747"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 59 10104 0 0,'0'0'464'0'0,"0"0"-10"0"0,0 0-271 0 0,0 0-51 0 0,0 0 11 0 0,0 0 1 0 0,0 0 8 0 0,0 0-88 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-64 0 0,19-11 471 0 0,-15 9-428 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1-1 0 0 0,2 0-43 0 0,-4 4 80 0 0,0 1 71 0 0,0 0 29 0 0,0 0 4 0 0,0 0 13 0 0,0 0 58 0 0,0 0 29 0 0,0 0 4 0 0,0 0-16 0 0,0 0-68 0 0,0 0-32 0 0,0 0-5 0 0,0 0 0 0 0,0 0-7 0 0,0 0-7 0 0,0 0-1 0 0,20-1 1502 0 0,-4-1-912 0 0,-15 2-717 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1-25 0 0,-1-1-510 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1729,45 +2207,46 @@
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="C2" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
+      <c r="C3" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1779,7 +2258,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="76">
         <v>43417</v>
@@ -1794,7 +2273,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="77">
         <v>43556</v>
@@ -1809,7 +2288,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="81">
         <f>SUM(C11,D11,E11,F11,G11,H11)</f>
@@ -1825,10 +2304,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1840,10 +2319,10 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1855,40 +2334,40 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="78">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D11" s="78">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E11" s="78">
         <v>25</v>
@@ -1909,91 +2388,91 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2005,67 +2484,67 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2080,13 +2559,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2099,7 +2578,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2112,10 +2591,10 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2123,13 +2602,13 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2142,7 +2621,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2155,7 +2634,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2168,7 +2647,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2181,10 +2660,10 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2192,7 +2671,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2211,18 +2690,18 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="82">
         <v>43581</v>
@@ -2230,7 +2709,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="82">
         <v>43574</v>
@@ -2238,7 +2717,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="82">
         <v>43560</v>
@@ -2246,7 +2725,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="82">
         <v>43493</v>
@@ -2254,7 +2733,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="82">
         <v>43482</v>
@@ -2262,28 +2741,28 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+      <c r="B8" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="103">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="82">
-        <v>43475</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="83">
+      <c r="C9" s="101">
         <v>43456</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="82">
         <v>43474</v>
@@ -2296,379 +2775,456 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230ECA56-04B2-4271-9B6D-69C62BBA135C}">
-  <dimension ref="B1:L32"/>
+  <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" customWidth="1"/>
+    <col min="2" max="2" width="27.53125" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1328125" customWidth="1"/>
-    <col min="5" max="5" width="23.265625" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="5.73046875" customWidth="1"/>
-    <col min="8" max="8" width="24.265625" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" customWidth="1"/>
+    <col min="8" max="8" width="24.19921875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="3.86328125" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53125" customWidth="1"/>
+    <col min="12" max="12" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" customWidth="1"/>
+    <col min="16" max="16" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="96" t="s">
+    <row r="1" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="E2" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="113"/>
+      <c r="H2" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="113"/>
+    </row>
+    <row r="3" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="E2" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="97"/>
-      <c r="H2" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="97"/>
-    </row>
-    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="75" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="31">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="30">
         <v>50</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="66">
-        <f>C25</f>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="94" t="s">
+        <f>C26</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="111"/>
+      <c r="E6" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="E6" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="95"/>
-      <c r="H6" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="95"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F6" s="111"/>
+      <c r="H6" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="111"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="58">
         <v>400</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="58">
         <v>0</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B8" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="59">
         <v>425</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="59">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="60">
-        <f>'ConBadge BOM'!J12</f>
-        <v>790.5</v>
+        <f>'ConBadge BOM'!J11</f>
+        <v>1112.5</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="60">
         <f>'KidsBadge BOM'!J12</f>
         <v>173.5</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="60">
         <f>'LTS BOM'!J7</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="71">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="71">
         <v>26</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="71">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="61">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C11" s="61"/>
       <c r="E11" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="61">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F11" s="61"/>
       <c r="H11" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="61"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B12" s="55" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C12" s="61">
+        <v>100</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="H12" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="61"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="61">
         <f>(C3+C4)*1.5</f>
-        <v>1140</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="61">
+        <v>1215</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="61">
         <f>(F3)*1.5</f>
         <v>75</v>
       </c>
-      <c r="H12" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="61">
-        <f>(I3)*0.8</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="62">
+      <c r="H13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="61">
+        <f>I3*1</f>
+        <v>150</v>
+      </c>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="62">
         <f>'ConBadge BOM'!J18</f>
-        <v>213</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="62">
+        <v>505</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="62">
         <f>'KidsBadge BOM'!J18</f>
         <v>50</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H14" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="62">
+        <f>'LTS BOM'!J14</f>
+        <v>61.5</v>
+      </c>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="95"/>
+    </row>
+    <row r="15" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="62">
-        <f>'LTS BOM'!J14</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="63">
-        <f>SUM(C7:C13)</f>
-        <v>3020.5</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="63">
-        <f>SUM(F7:F13)</f>
+      <c r="C15" s="63">
+        <f>SUM(C7:C14)</f>
+        <v>3907.5</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="63">
+        <f>SUM(F7:F14)</f>
         <v>324.5</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="63">
-        <f>SUM(I7:I13)</f>
-        <v>163</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="42">
-        <f>C14+F14</f>
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="41" t="s">
+      <c r="H15" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="63">
+        <f>SUM(I7:I14)</f>
+        <v>261.5</v>
+      </c>
+      <c r="K15" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="44">
-        <f>C14 / (C3+C4)</f>
-        <v>3.9743421052631578</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="L15" s="42">
+        <f>C15+F15</f>
+        <v>4232</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="95"/>
+    </row>
+    <row r="16" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="95"/>
+    </row>
+    <row r="17" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="44">
+        <f>C15 / (C3+C4)</f>
+        <v>4.8240740740740744</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="44">
+        <f>F15/F3</f>
+        <v>6.49</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="44">
+        <f>I15/I3</f>
+        <v>1.7433333333333334</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="95"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="L18" s="3"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="95"/>
+    </row>
+    <row r="19" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+    </row>
+    <row r="20" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="H20" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="115"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B21" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="70">
+        <v>500</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="89">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B22" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="67">
+        <v>25</v>
+      </c>
+      <c r="H22" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="44">
-        <f>F14/F3</f>
-        <v>6.49</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="44">
-        <f>I14/I3</f>
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="97"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="70">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="73" t="s">
+      <c r="I22" s="90">
+        <f>L15</f>
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B23" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="73" t="s">
+      <c r="C23" s="67">
+        <v>10</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="90">
+        <f>I21-I22</f>
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C24" s="67">
+        <v>15</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="91">
+        <f>I23/I22</f>
+        <v>0.41776937618147447</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="68">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C25" s="69">
-        <f>SUM(C20:C24)</f>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="28" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="36" t="s">
+    <row r="26" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C26" s="69">
+        <f>SUM(C21:C25)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B30" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="37" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B31" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="38" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B32" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="39" t="s">
+    <row r="33" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2677,77 +3233,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
-    <col min="3" max="3" width="41.73046875" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="3" max="3" width="75.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.86328125" style="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.73046875" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" customWidth="1"/>
     <col min="11" max="11" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="J3" s="48">
         <f>'Cost Summary'!C3</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -2763,289 +3319,295 @@
       </c>
       <c r="J4" s="19">
         <f>I4*J3</f>
-        <v>211.5</v>
+        <v>352.5</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5">
-        <v>0.79</v>
+        <v>0.19</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I5:I11" si="0">H5*G5</f>
-        <v>0.79</v>
+        <f t="shared" ref="I5:I10" si="0">H5*G5</f>
+        <v>1.1400000000000001</v>
       </c>
       <c r="J5" s="6">
         <f>I5*J3</f>
-        <v>118.5</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+        <v>285.00000000000006</v>
+      </c>
+      <c r="K5" s="87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>1206</v>
+      </c>
       <c r="G6" s="5">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>1.1400000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="6">
         <f>I6*J3</f>
-        <v>171.00000000000003</v>
-      </c>
-      <c r="K6" s="88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>1206</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="C7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="J7" s="34">
         <f>I7*J3</f>
-        <v>15</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+        <v>102.5</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
-      <c r="C8" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33">
-        <v>0.44</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>0.44</v>
-      </c>
-      <c r="J8" s="34">
+        <v>0.13</v>
+      </c>
+      <c r="J8" s="6">
         <f>I8*J3</f>
-        <v>66</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+        <v>32.5</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>603</v>
+      </c>
       <c r="G9" s="5">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="J9" s="6">
         <f>I9*J3</f>
-        <v>19.5</v>
+        <v>5</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="14"/>
-      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="15"/>
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>603</v>
       </c>
-      <c r="G10" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="J10" s="6">
-        <f>I10*J3</f>
-        <v>3</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="15"/>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>603</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="G10" s="10">
         <v>0.24</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="J11" s="12">
-        <f>I11*J3</f>
-        <v>36</v>
-      </c>
-      <c r="K11" s="13" t="s">
+      <c r="J10" s="12">
+        <f>I10*J3</f>
+        <v>60</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H11">
+        <f>SUM(H4:H10)</f>
+        <v>22</v>
+      </c>
+      <c r="I11" s="45">
+        <f>SUM(I4:I10)</f>
+        <v>3.45</v>
+      </c>
+      <c r="J11" s="46">
+        <f>SUM(J3:J10)</f>
+        <v>1112.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I12" s="45">
-        <f>SUM(I4:I11)</f>
-        <v>4.2700000000000005</v>
-      </c>
-      <c r="J12" s="46">
-        <f>SUM(J3:J11)</f>
-        <v>790.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="49">
+      <c r="J14" s="49">
         <f>J3</f>
-        <v>150</v>
-      </c>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="14"/>
+        <v>250</v>
+      </c>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="14"/>
+      <c r="C15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
+        <f>H15*G15</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J15" s="6">
+        <f>I15*J14</f>
+        <v>140</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="14"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="H16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6">
         <f>H16*G16</f>
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="J16" s="6">
-        <f>I16*J15</f>
-        <v>84.000000000000014</v>
-      </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f>I16*J3</f>
+        <v>150</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -3061,33 +3623,34 @@
         <v>0.86</v>
       </c>
       <c r="J17" s="12">
-        <f>I17*J15</f>
-        <v>129</v>
-      </c>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f>I17*J14</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" s="45">
-        <f>SUM(I16:I17)</f>
-        <v>1.42</v>
+        <f>SUM(I15:I17)</f>
+        <v>2.02</v>
       </c>
       <c r="J18" s="47">
-        <f>SUM(J16:J17)</f>
-        <v>213</v>
+        <f>SUM(J15:J17)</f>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B13:K13"/>
     <mergeCell ref="B2:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K11" r:id="rId1" xr:uid="{D6A3A7F7-99EF-4735-9B85-F76458A526A1}"/>
-    <hyperlink ref="K6" r:id="rId2" xr:uid="{69AC4793-AFA7-45EC-9154-F99755E7A340}"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{D6A3A7F7-99EF-4735-9B85-F76458A526A1}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{69AC4793-AFA7-45EC-9154-F99755E7A340}"/>
+    <hyperlink ref="K16" r:id="rId3" xr:uid="{5109247C-C2B0-4A4F-A98F-FC1BF3AB020D}"/>
+    <hyperlink ref="K7" r:id="rId4" xr:uid="{847C5AE6-7E2D-45CB-BD02-EFD55D735855}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3095,55 +3658,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4301377-AA15-484C-9B9E-5F5D243282E9}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="123.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="123.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="J3" s="48">
         <f>'Cost Summary'!F3</f>
@@ -3154,7 +3717,7 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -3180,7 +3743,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3200,13 +3763,13 @@
         <v>38</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3226,13 +3789,13 @@
         <v>39</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3254,13 +3817,13 @@
         <v>5</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -3280,13 +3843,13 @@
         <v>22</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3306,13 +3869,13 @@
         <v>6.5</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3334,13 +3897,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -3362,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3377,43 +3940,43 @@
     </row>
     <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
+      <c r="B14" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="F15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I15" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="J15" s="49">
         <f>J3</f>
@@ -3424,10 +3987,10 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3450,7 +4013,7 @@
     <row r="17" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -3499,73 +4062,73 @@
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="123.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="123.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="J3" s="48">
         <f>'Cost Summary'!I3</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="14"/>
       <c r="C4" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="G4" s="5">
         <v>0.1</v>
@@ -3579,21 +4142,21 @@
       </c>
       <c r="J4" s="6">
         <f>I4*J3</f>
-        <v>10</v>
-      </c>
-      <c r="K4" s="89" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5">
         <v>0.05</v>
@@ -3607,21 +4170,21 @@
       </c>
       <c r="J5" s="6">
         <f>I5*J3</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="15"/>
       <c r="C6" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="10">
         <v>0.01</v>
@@ -3635,10 +4198,10 @@
       </c>
       <c r="J6" s="12">
         <f>I6*J3</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3648,65 +4211,65 @@
       </c>
       <c r="J7" s="53">
         <f>SUM(J4:J6)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
+      <c r="B9" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="I10" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="J10" s="49">
         <f>J3</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="14"/>
       <c r="C11" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="F11" s="65">
         <v>2032</v>
@@ -3723,24 +4286,24 @@
       </c>
       <c r="J11" s="6">
         <f>I11*J10</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="84"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="65"/>
-      <c r="G12" s="85">
+      <c r="G12" s="84">
         <v>0.16</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="85">
         <v>1</v>
       </c>
       <c r="I12" s="6">
@@ -3749,14 +4312,14 @@
       </c>
       <c r="J12" s="6">
         <f>I12*J10</f>
-        <v>16</v>
-      </c>
-      <c r="K12" s="87"/>
+        <v>24</v>
+      </c>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="15"/>
       <c r="C13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -3773,7 +4336,7 @@
       </c>
       <c r="J13" s="12">
         <f>I13*J10</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="K13" s="29"/>
     </row>
@@ -3785,7 +4348,7 @@
       </c>
       <c r="J14" s="47">
         <f>SUM(J11:J13)</f>
-        <v>41</v>
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/admin docs/BSides19 Project Summary.xlsx
+++ b/admin docs/BSides19 Project Summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="280" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A93FEF17-72BE-44F1-B234-373622BD33D1}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="6_{1FF347B4-B7B3-494A-B430-3C9EE18135A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8E2FCE5C-7544-4366-801A-124CE96268DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
   <si>
     <t>https://www.mouser.com/ProductDetail/Espressif-Systems/ESP-WROOM-02D?qs=sGAEpiMZZMve4%2fbfQkoj%252bFo2lZdnZgOU6INDYnTf7ns%3d</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Variations</t>
   </si>
   <si>
-    <t>146 x 67</t>
-  </si>
-  <si>
     <t>Board Size (mm)</t>
   </si>
   <si>
@@ -427,6 +424,15 @@
   </si>
   <si>
     <t>SMD</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>146.5x71</t>
+  </si>
+  <si>
+    <t>PCBWayCost</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1139,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1292,6 +1298,12 @@
     <xf numFmtId="15" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1422,13 +1434,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>780450</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>82147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>804930</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>110227</xdr:rowOff>
@@ -1487,13 +1499,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1086600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1102080</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>138877</xdr:rowOff>
@@ -1552,13 +1564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1154280</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1173720</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>98557</xdr:rowOff>
@@ -1617,13 +1629,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1096320</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>113317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1108560</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>116197</xdr:rowOff>
@@ -1682,13 +1694,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1157520</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>106837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1205040</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>129877</xdr:rowOff>
@@ -2200,7 +2212,7 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2213,37 +2225,37 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="C2" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
+      <c r="C3" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5">
         <v>6000</v>
@@ -2258,7 +2270,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="76">
         <v>43417</v>
@@ -2273,7 +2285,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="77">
         <v>43556</v>
@@ -2292,7 +2304,7 @@
       </c>
       <c r="C7" s="81">
         <f>SUM(C11,D11,E11,F11,G11,H11)</f>
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2304,10 +2316,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2319,10 +2331,10 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2355,9 +2367,11 @@
         <v>56</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="79" t="s">
@@ -2379,12 +2393,14 @@
         <v>10</v>
       </c>
       <c r="H11" s="78">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I11" s="4">
         <v>50</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="79" t="s">
@@ -2505,7 +2521,7 @@
         <v>71</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -2559,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -2594,7 +2610,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2602,13 +2618,13 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2621,7 +2637,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2634,7 +2650,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2647,7 +2663,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2663,7 +2679,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2671,7 +2687,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2690,7 +2706,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2701,7 +2717,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="82">
         <v>43581</v>
@@ -2709,7 +2725,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="82">
         <v>43574</v>
@@ -2717,36 +2733,36 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="82">
         <v>43560</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="82">
+      <c r="B5" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="111">
         <v>43493</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="82">
+      <c r="B6" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="103">
         <v>43482</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="103">
         <v>43475</v>
@@ -2754,17 +2770,17 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="101">
         <v>43456</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="82">
+      <c r="B10" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="103">
         <v>43474</v>
       </c>
     </row>
@@ -2775,10 +2791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230ECA56-04B2-4271-9B6D-69C62BBA135C}">
-  <dimension ref="B1:Q33"/>
+  <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2802,18 +2818,18 @@
   <sheetData>
     <row r="1" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="E2" s="112" t="s">
+      <c r="C2" s="119"/>
+      <c r="E2" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="H2" s="112" t="s">
+      <c r="F2" s="119"/>
+      <c r="H2" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="113"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="75" t="s">
@@ -2840,31 +2856,31 @@
         <v>61</v>
       </c>
       <c r="C4" s="66">
-        <f>C26</f>
-        <v>560</v>
+        <f>C27</f>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="E6" s="110" t="s">
+      <c r="C6" s="117"/>
+      <c r="E6" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="H6" s="110" t="s">
+      <c r="F6" s="117"/>
+      <c r="H6" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="111"/>
+      <c r="I6" s="117"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="54" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="58">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="E7" s="54" t="s">
         <v>22</v>
@@ -2884,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="59">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>23</v>
@@ -2904,7 +2920,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="60">
-        <f>'ConBadge BOM'!J11</f>
+        <f>'ConBadge BOM'!K11</f>
         <v>1112.5</v>
       </c>
       <c r="E9" s="55" t="s">
@@ -2958,17 +2974,17 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B12" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="61">
         <v>100</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="61"/>
       <c r="H12" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="61"/>
     </row>
@@ -2978,7 +2994,7 @@
       </c>
       <c r="C13" s="61">
         <f>(C3+C4)*1.5</f>
-        <v>1215</v>
+        <v>1245</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>33</v>
@@ -3003,8 +3019,8 @@
         <v>26</v>
       </c>
       <c r="C14" s="62">
-        <f>'ConBadge BOM'!J18</f>
-        <v>505</v>
+        <f>'ConBadge BOM'!K18</f>
+        <v>570</v>
       </c>
       <c r="E14" s="56" t="s">
         <v>26</v>
@@ -3030,7 +3046,7 @@
       </c>
       <c r="C15" s="63">
         <f>SUM(C7:C14)</f>
-        <v>3907.5</v>
+        <v>3896.5</v>
       </c>
       <c r="E15" s="57" t="s">
         <v>27</v>
@@ -3051,7 +3067,7 @@
       </c>
       <c r="L15" s="42">
         <f>C15+F15</f>
-        <v>4232</v>
+        <v>4221</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="98"/>
@@ -3071,7 +3087,7 @@
       </c>
       <c r="C17" s="44">
         <f>C15 / (C3+C4)</f>
-        <v>4.8240740740740744</v>
+        <v>4.6945783132530119</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>45</v>
@@ -3104,14 +3120,14 @@
       <c r="Q19" s="95"/>
     </row>
     <row r="20" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="H20" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="115"/>
+      <c r="C20" s="119"/>
+      <c r="H20" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="121"/>
       <c r="O20" s="95"/>
       <c r="P20" s="95"/>
       <c r="Q20" s="95"/>
@@ -3124,10 +3140,10 @@
         <v>500</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="89">
-        <v>6000</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.45">
@@ -3142,7 +3158,7 @@
       </c>
       <c r="I22" s="90">
         <f>L15</f>
-        <v>4232</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.45">
@@ -3150,14 +3166,14 @@
         <v>56</v>
       </c>
       <c r="C23" s="67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H23" s="93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="90">
         <f>I21-I22</f>
-        <v>1768</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3168,50 +3184,60 @@
         <v>15</v>
       </c>
       <c r="H24" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="91">
         <f>I23/I22</f>
-        <v>0.41776937618147447</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="74" t="s">
+        <v>0.56361051883439939</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B25" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="107">
+        <v>15</v>
+      </c>
+      <c r="H25" s="108"/>
+      <c r="I25" s="109"/>
+    </row>
+    <row r="26" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C26" s="68">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C26" s="69">
-        <f>SUM(C21:C25)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="36" t="s">
+    <row r="27" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C27" s="69">
+        <f>SUM(C21:C26)</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="30" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B30" s="37" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B31" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B31" s="38" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B32" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B32" s="39" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="40" t="s">
+    <row r="34" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3233,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3245,29 +3271,31 @@
     <col min="3" max="3" width="75.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.86328125" style="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" customWidth="1"/>
-    <col min="11" max="11" width="131" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.9296875" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" style="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="12" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="116" t="s">
+    <row r="1" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
@@ -3283,49 +3311,55 @@
       <c r="F3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="48">
+      <c r="K3" s="48">
         <f>'Cost Summary'!C3</f>
         <v>250</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="L3" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="H4" s="18">
         <v>1.41</v>
       </c>
-      <c r="H4" s="17">
+      <c r="I4" s="17">
         <v>1</v>
       </c>
-      <c r="I4" s="19">
+      <c r="J4" s="19">
         <v>1.41</v>
       </c>
-      <c r="J4" s="19">
-        <f>I4*J3</f>
+      <c r="K4" s="19">
+        <f>J4*K3</f>
         <v>352.5</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="L4" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -3333,25 +3367,28 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="5">
         <v>0.19</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>6</v>
       </c>
-      <c r="I5" s="6">
-        <f t="shared" ref="I5:I10" si="0">H5*G5</f>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J10" si="0">I5*H5</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="J5" s="6">
-        <f>I5*J3</f>
+      <c r="K5" s="6">
+        <f>J5*K3</f>
         <v>285.00000000000006</v>
       </c>
-      <c r="K5" s="87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L5" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -3361,25 +3398,28 @@
       <c r="F6" s="4">
         <v>1206</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.01</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J6" s="6">
-        <f>I6*J3</f>
+      <c r="K6" s="6">
+        <f>J6*K3</f>
         <v>25</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="32" t="s">
         <v>6</v>
@@ -3387,25 +3427,28 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H7" s="33">
         <v>0.41</v>
       </c>
-      <c r="H7" s="32">
+      <c r="I7" s="32">
         <v>1</v>
       </c>
-      <c r="I7" s="34">
+      <c r="J7" s="34">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
-      <c r="J7" s="34">
-        <f>I7*J3</f>
+      <c r="K7" s="34">
+        <f>J7*K3</f>
         <v>102.5</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="L7" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -3413,25 +3456,28 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="H8" s="5">
         <v>0.13</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="J8" s="6">
-        <f>I8*J3</f>
+      <c r="K8" s="6">
+        <f>J8*K3</f>
         <v>32.5</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3439,27 +3485,30 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>603</v>
-      </c>
-      <c r="G9" s="5">
+        <v>805</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.01</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J9" s="6">
-        <f>I9*J3</f>
+      <c r="K9" s="6">
+        <f>J9*K3</f>
         <v>5</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15"/>
       <c r="C10" s="9" t="s">
         <v>11</v>
@@ -3467,59 +3516,63 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>603</v>
-      </c>
-      <c r="G10" s="10">
+        <v>805</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="H10" s="10">
         <v>0.24</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="12">
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="J10" s="12">
-        <f>I10*J3</f>
+      <c r="K10" s="12">
+        <f>J10*K3</f>
         <v>60</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H11">
-        <f>SUM(H4:H10)</f>
+    <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I11">
+        <f>SUM(I4:I10)</f>
         <v>22</v>
       </c>
-      <c r="I11" s="45">
-        <f>SUM(I4:I10)</f>
+      <c r="J11" s="45">
+        <f>SUM(J4:J10)</f>
         <v>3.45</v>
       </c>
-      <c r="J11" s="46">
-        <f>SUM(J3:J10)</f>
+      <c r="K11" s="46">
+        <f>SUM(K3:K10)</f>
         <v>1112.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I12" s="3"/>
+    <row r="12" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="116" t="s">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="25" t="s">
         <v>14</v>
       </c>
@@ -3535,76 +3588,81 @@
       <c r="F14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="49">
-        <f>J3</f>
+      <c r="K14" s="49">
+        <f>K3</f>
         <v>250</v>
       </c>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5">
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
-        <f>H15*G15</f>
+      <c r="J15" s="6">
+        <f>I15*H15</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J15" s="6">
-        <f>I15*J14</f>
+      <c r="K15" s="6">
+        <f>J15*K14</f>
         <v>140</v>
       </c>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="14"/>
       <c r="B16" s="105"/>
       <c r="C16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="6">
-        <f>H16*G16</f>
-        <v>0.6</v>
-      </c>
       <c r="J16" s="6">
-        <f>I16*J3</f>
-        <v>150</v>
-      </c>
-      <c r="K16" s="87" t="s">
+        <f>I16*H16</f>
+        <v>0.86</v>
+      </c>
+      <c r="K16" s="6">
+        <f>J16*K3</f>
+        <v>215</v>
+      </c>
+      <c r="L16" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="11" t="s">
         <v>32</v>
@@ -3612,41 +3670,42 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="10">
+      <c r="G17" s="11"/>
+      <c r="H17" s="10">
         <v>0.86</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>1</v>
       </c>
-      <c r="I17" s="12">
-        <f>H17*G17</f>
+      <c r="J17" s="12">
+        <f>I17*H17</f>
         <v>0.86</v>
       </c>
-      <c r="J17" s="12">
-        <f>I17*J14</f>
+      <c r="K17" s="12">
+        <f>J17*K14</f>
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I18" s="45">
-        <f>SUM(I15:I17)</f>
-        <v>2.02</v>
-      </c>
-      <c r="J18" s="47">
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J18" s="45">
         <f>SUM(J15:J17)</f>
-        <v>505</v>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K18" s="47">
+        <f>SUM(K15:K17)</f>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1" xr:uid="{D6A3A7F7-99EF-4735-9B85-F76458A526A1}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{69AC4793-AFA7-45EC-9154-F99755E7A340}"/>
-    <hyperlink ref="K16" r:id="rId3" xr:uid="{5109247C-C2B0-4A4F-A98F-FC1BF3AB020D}"/>
-    <hyperlink ref="K7" r:id="rId4" xr:uid="{847C5AE6-7E2D-45CB-BD02-EFD55D735855}"/>
+    <hyperlink ref="L10" r:id="rId1" xr:uid="{D6A3A7F7-99EF-4735-9B85-F76458A526A1}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{69AC4793-AFA7-45EC-9154-F99755E7A340}"/>
+    <hyperlink ref="L16" r:id="rId3" xr:uid="{5109247C-C2B0-4A4F-A98F-FC1BF3AB020D}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{847C5AE6-7E2D-45CB-BD02-EFD55D735855}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
@@ -3670,18 +3729,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
@@ -3717,7 +3776,7 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -3743,7 +3802,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3940,18 +3999,18 @@
     </row>
     <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
@@ -4074,18 +4133,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
@@ -4128,7 +4187,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="5">
         <v>0.1</v>
@@ -4216,18 +4275,18 @@
     </row>
     <row r="8" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="124"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="25" t="s">
@@ -4289,13 +4348,13 @@
         <v>30</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="83"/>
       <c r="C12" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
